--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrieledevito/Personal/Iac_sec_smells/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C43EB08-E3F2-E448-B897-62E51A4291D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B1F8F-EA1F-EB49-96F1-D6CA2FA371EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="760" windowWidth="17080" windowHeight="12080" activeTab="1" xr2:uid="{158989E0-D7E1-C449-99C3-83C34C78F5FD}"/>
+    <workbookView xWindow="13160" yWindow="1880" windowWidth="17080" windowHeight="12080" xr2:uid="{158989E0-D7E1-C449-99C3-83C34C78F5FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Ansible" sheetId="5" r:id="rId1"/>
@@ -261,13 +261,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,13 +590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DB5D7-7F61-CF4D-BC19-9EB4E0AA91DC}">
   <dimension ref="B1:AI52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" bestFit="1" customWidth="1"/>
@@ -604,38 +605,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="7"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
       <c r="Y1" s="7"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1485,16 +1486,16 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="H18" s="21" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="H18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -1807,31 +1808,31 @@
       </c>
     </row>
     <row r="37" spans="2:24" ht="24" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="G37" s="19" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="G37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="L37" s="19" t="s">
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="L37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="Q37" s="19" t="s">
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="Q37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="V37" s="19" t="s">
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="V37" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
@@ -1870,31 +1871,31 @@
         <v>29</v>
       </c>
       <c r="C40">
-        <v>497.79538608000001</v>
+        <v>356.50989436999998</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
       </c>
       <c r="H40">
-        <v>441.65470385999998</v>
+        <v>332.36214948000003</v>
       </c>
       <c r="L40" t="s">
         <v>29</v>
       </c>
       <c r="M40">
-        <v>507.05157019000001</v>
+        <v>343.94766234999997</v>
       </c>
       <c r="Q40" t="s">
         <v>29</v>
       </c>
       <c r="R40">
-        <v>520.92360497000004</v>
+        <v>369.23824573000002</v>
       </c>
       <c r="V40" t="s">
         <v>29</v>
       </c>
       <c r="W40">
-        <v>568.12709165000001</v>
+        <v>347.93745541999999</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
@@ -1902,31 +1903,31 @@
         <v>30</v>
       </c>
       <c r="C41">
-        <v>6.1456220500000001</v>
+        <v>4.4013567199999999</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
       </c>
       <c r="H41">
-        <v>5.4525272100000004</v>
+        <v>4.1032364100000001</v>
       </c>
       <c r="L41" t="s">
         <v>30</v>
       </c>
       <c r="M41">
-        <v>6.2597724699999997</v>
+        <v>4.2462674399999996</v>
       </c>
       <c r="Q41" t="s">
         <v>30</v>
       </c>
       <c r="R41">
-        <v>6.4311556200000002</v>
+        <v>4.55849686</v>
       </c>
       <c r="V41" t="s">
         <v>30</v>
       </c>
       <c r="W41">
-        <v>7.0139147099999999</v>
+        <v>4.2955241400000004</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
@@ -1934,31 +1935,31 @@
         <v>33</v>
       </c>
       <c r="C42">
-        <v>1.4868432199999999</v>
+        <v>1.72453284</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42">
-        <v>1.2709904299999999</v>
+        <v>1.3727765000000001</v>
       </c>
       <c r="L42" t="s">
         <v>33</v>
       </c>
       <c r="M42">
-        <v>1.4726810800000001</v>
+        <v>1.60295359</v>
       </c>
       <c r="Q42" t="s">
         <v>33</v>
       </c>
       <c r="R42">
-        <v>1.79908728</v>
+        <v>2.0685251299999998</v>
       </c>
       <c r="V42" t="s">
         <v>33</v>
       </c>
       <c r="W42">
-        <v>1.97907016</v>
+        <v>1.6661225399999999</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.2">
@@ -1966,67 +1967,67 @@
         <v>34</v>
       </c>
       <c r="C43">
-        <v>4.0276395100000002</v>
+        <v>3.8223810199999999</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43">
-        <v>3.57601404</v>
+        <v>3.7088780400000001</v>
       </c>
       <c r="L43" t="s">
         <v>34</v>
       </c>
       <c r="M43">
-        <v>4.6151630900000002</v>
+        <v>3.9190416300000002</v>
       </c>
       <c r="Q43" t="s">
         <v>34</v>
       </c>
       <c r="R43">
-        <v>4.2448368099999998</v>
+        <v>3.7605392900000001</v>
       </c>
       <c r="V43" t="s">
         <v>34</v>
       </c>
       <c r="W43">
-        <v>4.7846579599999997</v>
+        <v>4.0014300299999999</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <f>AVERAGE(C41,H41,M41,R41,W41)</f>
-        <v>6.2605984120000002</v>
+        <v>4.3209763140000002</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="14">
         <f>AVERAGE(C40,H40,M40,R40,W40)</f>
-        <v>507.11047135000001</v>
+        <v>349.99908146999996</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <f>AVERAGE(C42,H42,M42,R42,W42)</f>
-        <v>1.6017344340000002</v>
+        <v>1.6869821200000001</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="14">
         <f>AVERAGE(C43,H43,M43,R43,W43)</f>
-        <v>4.2496622820000001</v>
+        <v>3.8424540020000002</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
@@ -2047,11 +2048,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="B37:D37"/>
@@ -2059,6 +2055,11 @@
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="Q37:S37"/>
     <mergeCell ref="V37:X37"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA4" r:id="rId1" xr:uid="{6A617B7E-3167-6B41-9091-A12C1118AD09}"/>
@@ -2071,13 +2072,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B8FB5-0222-DA48-BA33-E7A320032C65}">
   <dimension ref="B1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B12"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" bestFit="1" customWidth="1"/>
@@ -2085,38 +2087,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="7"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
       <c r="Y1" s="7"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2976,16 +2978,16 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="H18" s="21" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="H18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -3304,31 +3306,31 @@
       </c>
     </row>
     <row r="37" spans="2:24" ht="24" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="G37" s="19" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="G37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="L37" s="19" t="s">
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="L37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="Q37" s="19" t="s">
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="Q37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="V37" s="19" t="s">
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="V37" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
@@ -3367,31 +3369,31 @@
         <v>29</v>
       </c>
       <c r="C40">
-        <v>825.96665000999997</v>
+        <v>406.94633055000003</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
       </c>
       <c r="H40">
-        <v>808.26899194999999</v>
+        <v>396.95164536999999</v>
       </c>
       <c r="L40" t="s">
         <v>29</v>
       </c>
       <c r="M40">
-        <v>857.63601112000003</v>
+        <v>400.50017881000002</v>
       </c>
       <c r="Q40" t="s">
         <v>29</v>
       </c>
       <c r="R40">
-        <v>831.20909189999998</v>
+        <v>375.86483693000002</v>
       </c>
       <c r="V40" t="s">
         <v>29</v>
       </c>
       <c r="W40">
-        <v>890.02188277000005</v>
+        <v>393.77211523</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
@@ -3399,31 +3401,31 @@
         <v>30</v>
       </c>
       <c r="C41">
-        <v>5.1947588099999997</v>
+        <v>5.0868291299999999</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
       </c>
       <c r="H41">
-        <v>5.2484999500000002</v>
+        <v>4.9618955700000003</v>
       </c>
       <c r="L41" t="s">
         <v>30</v>
       </c>
       <c r="M41">
-        <v>5.6054641199999997</v>
+        <v>5.0062522400000002</v>
       </c>
       <c r="Q41" t="s">
         <v>30</v>
       </c>
       <c r="R41">
-        <v>5.3282634099999999</v>
+        <v>4.6983104600000001</v>
       </c>
       <c r="V41" t="s">
         <v>30</v>
       </c>
       <c r="W41">
-        <v>5.5626367700000001</v>
+        <v>4.9221514400000004</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
@@ -3431,31 +3433,31 @@
         <v>33</v>
       </c>
       <c r="C42">
-        <v>1.76378664</v>
+        <v>1.9186846900000001</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42">
-        <v>1.55299436</v>
+        <v>1.7677131699999999</v>
       </c>
       <c r="L42" t="s">
         <v>33</v>
       </c>
       <c r="M42">
-        <v>1.72982353</v>
+        <v>1.8426844499999999</v>
       </c>
       <c r="Q42" t="s">
         <v>33</v>
       </c>
       <c r="R42">
-        <v>2.0527103100000001</v>
+        <v>2.38031937</v>
       </c>
       <c r="V42" t="s">
         <v>33</v>
       </c>
       <c r="W42">
-        <v>2.46864638</v>
+        <v>3.0441265199999998</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.2">
@@ -3463,67 +3465,67 @@
         <v>34</v>
       </c>
       <c r="C43">
-        <v>4.8889401000000001</v>
+        <v>4.91719711</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43">
-        <v>5.0319908900000003</v>
+        <v>4.7763694499999998</v>
       </c>
       <c r="L43" t="s">
         <v>34</v>
       </c>
       <c r="M43">
-        <v>5.9612450600000004</v>
+        <v>4.8755999799999996</v>
       </c>
       <c r="Q43" t="s">
         <v>34</v>
       </c>
       <c r="R43">
-        <v>5.6821498899999998</v>
+        <v>4.2886132000000003</v>
       </c>
       <c r="V43" t="s">
         <v>34</v>
       </c>
       <c r="W43">
-        <v>5.6803057199999998</v>
+        <v>4.4846404800000004</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <f>AVERAGE(C41,H41,M41,R41,W41)</f>
-        <v>5.3879246119999999</v>
+        <v>4.9350877680000007</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="14">
         <f>AVERAGE(C40,H40,M40,R40,W40)</f>
-        <v>842.62052555000014</v>
+        <v>394.807021378</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <f>AVERAGE(C42,H42,M42,R42,W42)</f>
-        <v>1.9135922440000002</v>
+        <v>2.19070564</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="14">
         <f>AVERAGE(C43,H43,M43,R43,W43)</f>
-        <v>5.448926332000001</v>
+        <v>4.6684840440000004</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -3544,11 +3546,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="B37:D37"/>
@@ -3556,6 +3553,11 @@
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="Q37:S37"/>
     <mergeCell ref="V37:X37"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA4" r:id="rId1" xr:uid="{E4EFA8BC-A902-D246-91E6-021EF053361B}"/>
@@ -3568,13 +3570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CC4CFE-E1D5-6243-8A4D-F03F470ACD46}">
   <dimension ref="B1:AI53"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" bestFit="1" customWidth="1"/>
@@ -3582,38 +3585,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="7"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
       <c r="Y1" s="7"/>
     </row>
     <row r="3" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4473,16 +4476,16 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="H18" s="21" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="H18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -4816,31 +4819,31 @@
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:24" ht="24" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="G37" s="19" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="G37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="L37" s="19" t="s">
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="L37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="Q37" s="19" t="s">
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="Q37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="V37" s="19" t="s">
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="V37" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
@@ -4879,31 +4882,31 @@
         <v>29</v>
       </c>
       <c r="C40">
-        <v>566.45184612000003</v>
+        <v>367.10173297</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
       </c>
       <c r="H40">
-        <v>552.84746242000006</v>
+        <v>385.03136821999999</v>
       </c>
       <c r="L40" t="s">
         <v>29</v>
       </c>
       <c r="M40">
-        <v>536.24410217000002</v>
+        <v>336.74578362</v>
       </c>
       <c r="Q40" t="s">
         <v>29</v>
       </c>
       <c r="R40">
-        <v>612.86227441000005</v>
+        <v>385.51549315</v>
       </c>
       <c r="V40" t="s">
         <v>29</v>
       </c>
       <c r="W40">
-        <v>614.33783173999996</v>
+        <v>397.28545165000003</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
@@ -4911,31 +4914,31 @@
         <v>30</v>
       </c>
       <c r="C41">
-        <v>4.8004393700000003</v>
+        <v>4.5887716599999999</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
       </c>
       <c r="H41">
-        <v>4.6457769999999998</v>
+        <v>4.8128921</v>
       </c>
       <c r="L41" t="s">
         <v>30</v>
       </c>
       <c r="M41">
-        <v>4.5444415400000002</v>
+        <v>4.2093223000000002</v>
       </c>
       <c r="Q41" t="s">
         <v>30</v>
       </c>
       <c r="R41">
-        <v>5.0649774699999996</v>
+        <v>4.8189436600000004</v>
       </c>
       <c r="V41" t="s">
         <v>30</v>
       </c>
       <c r="W41">
-        <v>5.1194819300000001</v>
+        <v>4.9660681499999999</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
@@ -4943,31 +4946,31 @@
         <v>33</v>
       </c>
       <c r="C42">
-        <v>2.1786841799999999</v>
+        <v>2.5431685900000001</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42">
-        <v>1.45543574</v>
+        <v>0.96988892999999998</v>
       </c>
       <c r="L42" t="s">
         <v>33</v>
       </c>
       <c r="M42">
-        <v>1.07169139</v>
+        <v>0.97149719000000001</v>
       </c>
       <c r="Q42" t="s">
         <v>33</v>
       </c>
       <c r="R42">
-        <v>1.2324340199999999</v>
+        <v>1.33797853</v>
       </c>
       <c r="V42" t="s">
         <v>33</v>
       </c>
       <c r="W42">
-        <v>1.30991463</v>
+        <v>1.4164968200000001</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.2">
@@ -4975,67 +4978,67 @@
         <v>34</v>
       </c>
       <c r="C43">
-        <v>4.4830737100000002</v>
+        <v>4.3266389399999996</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43">
-        <v>5.0068860099999997</v>
+        <v>4.7359470400000001</v>
       </c>
       <c r="L43" t="s">
         <v>34</v>
       </c>
       <c r="M43">
-        <v>4.3430952999999999</v>
+        <v>4.1266156699999996</v>
       </c>
       <c r="Q43" t="s">
         <v>34</v>
       </c>
       <c r="R43">
-        <v>5.05158591</v>
+        <v>4.7023570499999998</v>
       </c>
       <c r="V43" t="s">
         <v>34</v>
       </c>
       <c r="W43">
-        <v>5.1467034800000002</v>
+        <v>4.8419784300000002</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <f>AVERAGE(C41,H41,M41,R41,W41)</f>
-        <v>4.8350234619999997</v>
+        <v>4.6791995740000001</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="14">
         <f>AVERAGE(C40,H40,M40,R40,W40)</f>
-        <v>576.54870337200009</v>
+        <v>374.33596592200001</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <f>AVERAGE(C42,H42,M42,R42,W42)</f>
-        <v>1.4496319919999998</v>
+        <v>1.447806012</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="14">
         <f>AVERAGE(C43,H43,M43,R43,W43)</f>
-        <v>4.8062688819999995</v>
+        <v>4.5467074259999993</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -5056,11 +5059,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
     <mergeCell ref="Q37:S37"/>
     <mergeCell ref="V37:X37"/>
     <mergeCell ref="H18:I18"/>
@@ -5071,6 +5069,11 @@
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA4" r:id="rId1" xr:uid="{04E745DF-D424-524D-BE5E-84D4AEB357C5}"/>
